--- a/biology/Médecine/Eric_Esrailian/Eric_Esrailian.xlsx
+++ b/biology/Médecine/Eric_Esrailian/Eric_Esrailian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eric Esrailian est un médecin américain de l'université de Californie à Los Angeles[1], par ailleurs producteur de films.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eric Esrailian est un médecin américain de l'université de Californie à Los Angeles, par ailleurs producteur de films.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Réalisations et engagements divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il a été membre du conseil médical de Californie (en) en 2010-2011.
-Il a co-produit le film La Promesse[2], nommé au Grammy Awards 2018[3].
+Il a co-produit le film La Promesse, nommé au Grammy Awards 2018.
 Il est l'un des membres du conseil d'administration de la Fondation X Prize ainsi que de l'AGBU.
-Il est particulièrement actif dans le soutien à l'Artsakh, notamment vis-à-vis du blocus de 2022-2023, signant par exemple une tribune avec Cher dans Newsweek en 2023, à ce propos[4].</t>
+Il est particulièrement actif dans le soutien à l'Artsakh, notamment vis-à-vis du blocus de 2022-2023, signant par exemple une tribune avec Cher dans Newsweek en 2023, à ce propos.</t>
         </is>
       </c>
     </row>
